--- a/biology/Zoologie/Carpocorini/Carpocorini.xlsx
+++ b/biology/Zoologie/Carpocorini/Carpocorini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carpocorini sont une tribu d'insectes hémiptères du sous-ordre des hétéroptères (punaises), de la famille des Pentatomidae, de la sous-famille des Pentatominae.
 </t>
@@ -511,9 +523,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acledra - 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acledra - 
 Aeliavuori - 
 Aeliomorpha - 
 Agatharchoides - 
@@ -615,8 +629,43 @@
 Thestral - 
 Tibraca - 
 Trichopepla
-Genres rencontrés en Europe
-Antheminia Mulsant &amp; Rey 1866
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carpocorini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpocorini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antheminia Mulsant &amp; Rey 1866
 Carpocoris Kolenati 1846
 Chlorochroa Stål 1872
 Chroantha Stål 1872
